--- a/fuentes/contenidos/grado09/guion10/EsqueletoGuion_MA_09_10_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion10/EsqueletoGuion_MA_09_10_CO.xlsx
@@ -13,12 +13,12 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="80">
   <si>
     <t>TITULO</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Recurso M5A-05</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
     <t>Banco de actividades</t>
   </si>
   <si>
@@ -212,6 +206,9 @@
     <t>Evaluación</t>
   </si>
   <si>
+    <t>M5a</t>
+  </si>
+  <si>
     <t>si</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>Competencias</t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
   </si>
   <si>
     <t>Más información</t>
@@ -782,7 +776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1282,51 +1276,6 @@
       </c>
       <c r="F24">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1368,41 +1317,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1400,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,7 +1422,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,7 +1433,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,7 +1444,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,7 +1477,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,7 +1488,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,7 +1499,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1510,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,7 +1521,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,7 +1532,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,7 +1543,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,7 +1554,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1565,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,7 +1576,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,7 +1587,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,7 +1598,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,7 +1620,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,7 +1631,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,7 +1642,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,10 +1650,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1661,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1672,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1789,10 +1741,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1800,10 +1752,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1811,10 +1763,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1822,10 +1774,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,16 +1785,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1850,10 +1802,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1861,10 +1813,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1872,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1883,10 +1835,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1894,16 +1846,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,13 +1863,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1925,13 +1877,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1939,13 +1891,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,13 +1905,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1967,19 +1919,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1987,10 +1939,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1998,10 +1950,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2009,10 +1961,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2020,10 +1972,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2031,16 +1983,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2048,13 +2000,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2062,13 +2014,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2076,13 +2028,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2090,13 +2042,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,19 +2056,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2124,10 +2076,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,10 +2087,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2146,10 +2098,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2157,10 +2109,10 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2168,10 +2120,10 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,10 +2131,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2190,10 +2142,10 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2201,10 +2153,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2212,16 +2164,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2229,10 +2181,10 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,10 +2192,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2251,10 +2203,10 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2262,10 +2214,10 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2273,10 +2225,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2284,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,10 +2247,10 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2306,10 +2258,10 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2317,16 +2269,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2334,13 +2286,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2348,13 +2300,13 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2362,13 +2314,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2376,13 +2328,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,19 +2342,19 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,10 +2362,10 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2421,10 +2373,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2432,10 +2384,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2443,10 +2395,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2454,16 +2406,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2482,10 +2434,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2493,10 +2445,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,10 +2456,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2515,10 +2467,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,10 +2478,10 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2537,10 +2489,10 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2548,10 +2500,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,16 +2511,16 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2576,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,10 +2539,10 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2598,10 +2550,10 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2609,10 +2561,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2620,16 +2572,16 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2637,13 +2589,13 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,13 +2603,13 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2665,13 +2617,13 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,13 +2631,13 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2693,19 +2645,19 @@
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2713,10 +2665,10 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2724,10 +2676,10 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2735,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2746,10 +2698,10 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2757,10 +2709,10 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2768,10 +2720,10 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,10 +2731,10 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,10 +2742,10 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2801,16 +2753,16 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2818,10 +2770,10 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2829,10 +2781,10 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2840,10 +2792,10 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2851,10 +2803,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2862,16 +2814,16 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2879,13 +2831,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2893,13 +2845,13 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2907,13 +2859,13 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2921,13 +2873,13 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,19 +2887,19 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2955,10 +2907,10 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2966,10 +2918,10 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2977,10 +2929,10 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,10 +2940,10 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3010,10 +2962,10 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3021,10 +2973,10 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,10 +2984,10 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3043,16 +2995,16 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3060,13 +3012,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3074,13 +3026,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3088,13 +3040,13 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3102,13 +3054,13 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3116,19 +3068,19 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3136,13 +3088,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3150,13 +3102,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3164,13 +3116,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3178,13 +3130,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3192,19 +3144,19 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3212,10 +3164,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,214 +3178,16 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I130" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I131" s="10" t="s">
-        <v>59</v>
+      <c r="H113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
